--- a/biology/Zoologie/Formation_d'Allen/Formation_d'Allen.xlsx
+++ b/biology/Zoologie/Formation_d'Allen/Formation_d'Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Allen</t>
+          <t>Formation_d'Allen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La  formation d'Allen est une formation géologique d'Argentine datant du sommet du Crétacé supérieur (Campanien moyen à Maastrichtien inférieur), soit il y a environ entre 80 et 70 Ma (millions d'années)[1].
-Cette formation est célèbre pour les fossiles qu'elle renferme et, particulièrement, pour les restes de dinosaures[2].
+La  formation d'Allen est une formation géologique d'Argentine datant du sommet du Crétacé supérieur (Campanien moyen à Maastrichtien inférieur), soit il y a environ entre 80 et 70 Ma (millions d'années).
+Cette formation est célèbre pour les fossiles qu'elle renferme et, particulièrement, pour les restes de dinosaures.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_d%27Allen</t>
+          <t>Formation_d'Allen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation d'Allen affleure, en particulier, dans le nord de la province de Río Negro et dans la province de Neuquén.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Formation_d%27Allen</t>
+          <t>Formation_d'Allen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de faciès lacustres constitués de psammites argileux gris-vert avec des fissures comblées de gypse et des alternances de minces bancs ou lentilles de grès. Le gypse devient plus fréquent, en bancs irréguliers, dans la partie supérieure de la formation[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de faciès lacustres constitués de psammites argileux gris-vert avec des fissures comblées de gypse et des alternances de minces bancs ou lentilles de grès. Le gypse devient plus fréquent, en bancs irréguliers, dans la partie supérieure de la formation.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Formation_d%27Allen</t>
+          <t>Formation_d'Allen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dinosaures
-Les dinosaures y sont connus sous forme d'os et de squelettes presque complets ; on y trouve aussi des œufs[4].
-Ptérosaures
-Des fossiles fragmentaires de ptérosaures sont connus dans la formation[4].
-Mammifères
-La paléofaune de mammifères de la formation est connue au travers de sept dents qui prouvent la présence de plusieurs espèces[13].
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dinosaures y sont connus sous forme d'os et de squelettes presque complets ; on y trouve aussi des œufs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formation_d'Allen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_d%27Allen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Faune fossile de vertébrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ptérosaures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles fragmentaires de ptérosaures sont connus dans la formation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formation_d'Allen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_d%27Allen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune fossile de vertébrés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La paléofaune de mammifères de la formation est connue au travers de sept dents qui prouvent la présence de plusieurs espèces.
 </t>
         </is>
       </c>
